--- a/significance_test.xlsx
+++ b/significance_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>Traditional2 ~ Traditional</t>
   </si>
@@ -62,85 +62,77 @@
     <t>Kruskall Wallis</t>
   </si>
   <si>
-    <t>0.5279778 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4823611 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4940508 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4097222 (small)</t>
-  </si>
-  <si>
-    <t>0.4808 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4847091 (negligible)</t>
-  </si>
-  <si>
-    <t>0.47375 (negligible)</t>
-  </si>
-  <si>
-    <t>0.5037858 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4583333 (negligible)</t>
-  </si>
-  <si>
-    <t>0.5008 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4894737 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4930556 (negligible)</t>
-  </si>
-  <si>
-    <t>0.5086533 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4878472 (negligible)</t>
-  </si>
-  <si>
-    <t>0.5088 (negligible)</t>
-  </si>
-  <si>
-    <t>0.5395568 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4884722 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4848567 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4383681 (negligible)</t>
-  </si>
-  <si>
-    <t>0.4728 (negligible)</t>
-  </si>
-  <si>
     <t>VD.A</t>
+  </si>
+  <si>
+    <t>0.4871032 (negligible)</t>
+  </si>
+  <si>
+    <t>0.458953 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4972994 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4570312 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4941406 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4841978 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4860202 (negligible)</t>
+  </si>
+  <si>
+    <t>0.496142 (negligible)</t>
+  </si>
+  <si>
+    <t>0.5214844 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4355469 (negligible)</t>
+  </si>
+  <si>
+    <t>0.5201247 (negligible)</t>
+  </si>
+  <si>
+    <t>0.3911362 (small)</t>
+  </si>
+  <si>
+    <t>0.535108 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4042969 (small)</t>
+  </si>
+  <si>
+    <t>0.4414062 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4499008 (negligible)</t>
+  </si>
+  <si>
+    <t>0.5571089 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4602623 (negligible)</t>
+  </si>
+  <si>
+    <t>0.5488281 (negligible)</t>
+  </si>
+  <si>
+    <t>0.4921875 (negligible)</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="4">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +151,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,15 +220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -238,6 +228,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -261,48 +260,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -606,8 +601,8 @@
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -624,418 +619,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:5" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>35</v>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.7167</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="12">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.5252</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="6" t="s">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="10" spans="1:5" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.72470000000000001</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.62709999999999999</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" thickBot="1">
-      <c r="B7" s="8" t="s">
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" thickBot="1">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="18" spans="1:5" s="6" customFormat="1">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" thickBot="1"/>
-    <row r="10" spans="1:5" s="10" customFormat="1">
-      <c r="B10" s="11" t="s">
+      <c r="D18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="12">
+        <v>9.0520000000000003E-2</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.3654</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" thickBot="1">
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="26" spans="1:5" s="6" customFormat="1">
+      <c r="A26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="6" t="s">
+      <c r="E26" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.89670000000000005</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.8931</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" thickBot="1">
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1"/>
-    <row r="18" spans="2:5" s="10" customFormat="1">
-      <c r="B18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.7389</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.92769999999999997</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.28710000000000002</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="13.5" thickBot="1"/>
-    <row r="25" spans="2:5" s="10" customFormat="1">
-      <c r="B25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.3468</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.82830000000000004</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="14">
-        <v>0.81210000000000004</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B30" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="5">
-        <v>0.74680000000000002</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="12">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="13.5" thickBot="1"/>
-    <row r="33" spans="1:5" s="10" customFormat="1">
-      <c r="A33" s="10" t="s">
+    <row r="31" spans="1:5" ht="13.5" thickBot="1">
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="37" spans="1:5" s="6" customFormat="1">
+      <c r="A37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="6" t="s">
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="3">
-        <v>0.96299999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="6" t="s">
+      <c r="D38" s="13">
+        <v>0.86870000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="3">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="6" t="s">
+      <c r="D39" s="13">
+        <v>0.16420000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="3">
-        <v>0.97140000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="6" t="s">
+      <c r="D40" s="13">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="3">
-        <v>0.56469999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="13.5" thickBot="1">
-      <c r="B38" s="8" t="s">
+      <c r="D41" s="13">
+        <v>0.50119999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1">
+      <c r="B42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="5">
-        <v>0.94230000000000003</v>
+      <c r="D42" s="16">
+        <v>0.78710000000000002</v>
       </c>
     </row>
   </sheetData>
